--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,3498 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Serbian Super League</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FK IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cypriot 1st Division</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Omonia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Apollon Limassol</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>36</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>44</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rapid Bucharest</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Zaglebie Lubin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Wisla Plock</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>950</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Al Ittihad (EGY)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahallah</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Pharco FC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ESTAC Troyes</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>38</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Rubio Nu</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-28 02:39:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>2.12</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
@@ -1374,7 +1374,7 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q5" t="n">
         <v>2.24</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.8</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
         <v>2.12</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>6.6</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
         <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -3007,7 +3007,7 @@
         <v>11.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR13" t="n">
         <v>13.5</v>
@@ -3019,7 +3019,7 @@
         <v>10.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
         <v>10.5</v>
@@ -3043,23 +3043,23 @@
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BD13" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="BE13" t="n">
         <v>38</v>
       </c>
       <c r="BF13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BG13" t="n">
         <v>20</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -3117,22 +3117,22 @@
         <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
         <v>1.64</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -3290,10 +3290,10 @@
         <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q17" t="n">
         <v>2.92</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-28 02:39:21</t>
+          <t>2026-02-28 05:09:57</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH19"/>
+  <dimension ref="A1:BH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G2" t="n">
         <v>1.58</v>
@@ -777,7 +777,7 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.48</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
@@ -1359,7 +1359,7 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
         <v>2.46</v>
@@ -3007,7 +3007,7 @@
         <v>11.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AR13" t="n">
         <v>13.5</v>
@@ -3019,7 +3019,7 @@
         <v>10.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>10.5</v>
@@ -3040,7 +3040,7 @@
         <v>36</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>34</v>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,66 +3076,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.33</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.34</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>1.61</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3144,123 +3144,123 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,36 +3270,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="Q15" t="n">
         <v>1.01</v>
@@ -3447,14 +3447,14 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,36 +3464,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
@@ -3663,31 +3663,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>2.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3852,36 +3852,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -4029,201 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-28 05:09:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-02</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sportivo San Lorenzo</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Libertad</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>2026-02-28 05:09:57</t>
+          <t>2026-02-28 07:40:36</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="G2" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>1.86</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>15.5</v>
@@ -1491,7 +1491,7 @@
         <v>36</v>
       </c>
       <c r="BC5" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>34</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
         <v>2.12</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -2514,16 +2514,16 @@
         <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
         <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
         <v>2.46</v>
       </c>
       <c r="I13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2929,13 +2929,13 @@
         <v>1.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
         <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.85</v>
@@ -3019,7 +3019,7 @@
         <v>10.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
         <v>10.5</v>
@@ -3031,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -3093,16 +3093,16 @@
         <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>2.88</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
@@ -3684,7 +3684,7 @@
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="K17" t="n">
         <v>2.78</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-28 07:40:36</t>
+          <t>2026-02-28 10:11:38</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-03-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH18"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
         <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>1.11</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>1.86</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,14 +1313,14 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,191 +1330,191 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.41</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AX5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>44</v>
+      </c>
+      <c r="BC5" t="n">
         <v>26</v>
       </c>
-      <c r="AY5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>36</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>29</v>
-      </c>
       <c r="BD5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BE5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BF5" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="BG5" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1529,186 +1529,186 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>1000</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="AK6" t="n">
+        <v>630</v>
+      </c>
+      <c r="AL6" t="n">
         <v>1000</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="AM6" t="n">
         <v>1000</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1917,31 +1917,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,14 +2089,14 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,36 +2106,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.03</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -2314,22 +2314,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>710</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
         <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>1.39</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="I12" t="n">
         <v>2.14</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -2926,16 +2926,16 @@
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
         <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
         <v>1.85</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>32</v>
@@ -2977,46 +2977,46 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR13" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
         <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>6.8</v>
@@ -3025,48 +3025,48 @@
         <v>10.5</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="BE13" t="n">
         <v>38</v>
       </c>
       <c r="BF13" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="BG13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,191 +3076,191 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>1.33</v>
       </c>
       <c r="G14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
         <v>6.8</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>950</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,36 +3270,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3447,14 +3447,14 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,36 +3464,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
@@ -3663,31 +3663,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.88</v>
+        <v>1.27</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="K17" t="n">
-        <v>2.78</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-28 10:11:38</t>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3852,36 +3852,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3899,137 +3899,331 @@
         <v>1.07</v>
       </c>
       <c r="Q18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2026-02-28 12:42:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>2026-02-28 10:11:38</t>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-28 12:42:17</t>
         </is>
       </c>
     </row>
